--- a/etris_geodata_vulnerability.xlsx
+++ b/etris_geodata_vulnerability.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soltanis\Dropbox\Tsunami Risk Service\EPOS_ICS_pipeline\Geodata\etris_geodata_vulnerability_06_03_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\eurotsunamirisk-metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7678CD2-72D0-4576-A1C6-3894FF556526}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567E7B46-4F17-4776-A180-4A134ABC4251}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>Dam_Scale</t>
   </si>
   <si>
-    <t>consequence function</t>
-  </si>
-  <si>
     <t>Modelling</t>
   </si>
   <si>
@@ -917,6 +914,9 @@
   </si>
   <si>
     <t>https://github.com/eurotsunamirisk/etris_data_and_data_products/blob/main/etris_data_products/Vulnerability_Curves/SriLanka%202004_TotalArea_M3.csv</t>
+  </si>
+  <si>
+    <t>consequence_function</t>
   </si>
 </sst>
 </file>
@@ -1791,8 +1791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1833,36 +1833,36 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E2" s="1">
         <v>-0.89291084099999996</v>
@@ -1871,22 +1871,22 @@
         <v>119.8563315</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" t="s">
+        <v>136</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>137</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="M2" s="1">
         <v>4</v>
@@ -1894,16 +1894,16 @@
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1">
         <v>-0.89235995800000001</v>
@@ -1912,22 +1912,22 @@
         <v>119.86593379999999</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M3" s="1">
         <v>5</v>
@@ -1935,16 +1935,16 @@
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1">
         <v>-0.88984163599999999</v>
@@ -1953,22 +1953,22 @@
         <v>119.87506380000001</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M4" s="1">
         <v>6</v>
@@ -1976,16 +1976,16 @@
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1">
         <v>-0.87504645800000003</v>
@@ -1994,22 +1994,22 @@
         <v>119.8764018</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="K5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" s="1">
         <v>7</v>
@@ -2017,16 +2017,16 @@
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E6" s="1">
         <v>-0.89291084099999996</v>
@@ -2035,22 +2035,22 @@
         <v>119.8563315</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M6" s="1">
         <v>4</v>
@@ -2058,16 +2058,16 @@
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1">
         <v>-0.89235995800000001</v>
@@ -2076,22 +2076,22 @@
         <v>119.86593379999999</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M7" s="1">
         <v>5</v>
@@ -2099,16 +2099,16 @@
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1">
         <v>-0.88984163599999999</v>
@@ -2117,22 +2117,22 @@
         <v>119.87506380000001</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M8" s="1">
         <v>6</v>
@@ -2140,16 +2140,16 @@
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1">
         <v>-0.87504645800000003</v>
@@ -2158,22 +2158,22 @@
         <v>119.8764018</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="K9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M9" s="1">
         <v>7</v>
@@ -2181,16 +2181,16 @@
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E10" s="1">
         <v>-0.89291084099999996</v>
@@ -2199,22 +2199,22 @@
         <v>119.8563315</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M10" s="1">
         <v>4</v>
@@ -2222,16 +2222,16 @@
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1">
         <v>-0.89235995800000001</v>
@@ -2240,22 +2240,22 @@
         <v>119.86593379999999</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M11" s="1">
         <v>5</v>
@@ -2263,16 +2263,16 @@
     </row>
     <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="1">
         <v>-0.88984163599999999</v>
@@ -2281,22 +2281,22 @@
         <v>119.87506380000001</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M12" s="1">
         <v>6</v>
@@ -2304,16 +2304,16 @@
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="1">
         <v>-0.87504645800000003</v>
@@ -2322,22 +2322,22 @@
         <v>119.8764018</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="K13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="1">
         <v>7</v>
@@ -2345,16 +2345,16 @@
     </row>
     <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E14" s="1">
         <v>38.695780030000002</v>
@@ -2363,19 +2363,19 @@
         <v>-9.2184311759999993</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" t="s">
         <v>34</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="M14" s="1">
         <v>17</v>
@@ -2383,16 +2383,16 @@
     </row>
     <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E15" s="1">
         <v>38.699173569999999</v>
@@ -2401,19 +2401,19 @@
         <v>-9.1748053780000003</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" t="s">
         <v>38</v>
       </c>
-      <c r="K15" t="s">
-        <v>39</v>
-      </c>
       <c r="L15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M15" s="1">
         <v>17</v>
@@ -2421,16 +2421,16 @@
     </row>
     <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E16" s="1">
         <v>38.707850039999997</v>
@@ -2439,19 +2439,19 @@
         <v>-9.1341764570000006</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" t="s">
         <v>41</v>
       </c>
-      <c r="K16" t="s">
-        <v>42</v>
-      </c>
       <c r="L16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M16" s="1">
         <v>17</v>
@@ -2459,16 +2459,16 @@
     </row>
     <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="E17" s="1">
         <v>-36.546692999999998</v>
@@ -2477,22 +2477,22 @@
         <v>-72.938175999999999</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" t="s">
+        <v>148</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" t="s">
-        <v>149</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="M17" s="1">
         <v>18</v>
@@ -2500,16 +2500,16 @@
     </row>
     <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="E18" s="1">
         <v>-36.546793000000001</v>
@@ -2518,22 +2518,22 @@
         <v>-72.938175999999999</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" t="s">
+        <v>149</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" t="s">
-        <v>150</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="M18" s="1">
         <v>18</v>
@@ -2541,16 +2541,16 @@
     </row>
     <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="E19" s="1">
         <v>-36.546892999999997</v>
@@ -2559,22 +2559,22 @@
         <v>-72.938175999999999</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" t="s">
+        <v>150</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19" t="s">
-        <v>151</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="M19" s="1">
         <v>18</v>
@@ -2582,16 +2582,16 @@
     </row>
     <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="E20" s="1">
         <v>-13.84399339</v>
@@ -2600,22 +2600,22 @@
         <v>-171.75807380000001</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="M20" s="1">
         <v>1</v>
@@ -2623,16 +2623,16 @@
     </row>
     <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" s="1">
         <v>-13.84432674</v>
@@ -2641,22 +2641,22 @@
         <v>-171.7494907</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="K21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M21" s="1">
         <v>2</v>
@@ -2664,16 +2664,16 @@
     </row>
     <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E22" s="1">
         <v>-13.846877299999999</v>
@@ -2682,22 +2682,22 @@
         <v>-171.74387100000001</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="K22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M22" s="1">
         <v>3</v>
@@ -2705,16 +2705,16 @@
     </row>
     <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="E23" s="1">
         <v>-13.84299339</v>
@@ -2723,22 +2723,22 @@
         <v>-171.75807380000001</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M23" s="1">
         <v>1</v>
@@ -2746,16 +2746,16 @@
     </row>
     <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E24" s="1">
         <v>-13.84332674</v>
@@ -2764,22 +2764,22 @@
         <v>-171.7494907</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M24" s="1">
         <v>2</v>
@@ -2787,16 +2787,16 @@
     </row>
     <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E25" s="1">
         <v>-13.8458773</v>
@@ -2805,22 +2805,22 @@
         <v>-171.74387100000001</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M25" s="1">
         <v>3</v>
@@ -2828,16 +2828,16 @@
     </row>
     <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="E26" s="1">
         <v>-13.841993390000001</v>
@@ -2846,22 +2846,22 @@
         <v>-171.75807380000001</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M26" s="1">
         <v>1</v>
@@ -2869,16 +2869,16 @@
     </row>
     <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="D27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E27" s="1">
         <v>-13.842326740000001</v>
@@ -2887,22 +2887,22 @@
         <v>-171.7494907</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M27" s="1">
         <v>2</v>
@@ -2910,16 +2910,16 @@
     </row>
     <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E28" s="1">
         <v>-13.8448773</v>
@@ -2928,22 +2928,22 @@
         <v>-171.74387100000001</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M28" s="1">
         <v>3</v>
@@ -2951,16 +2951,16 @@
     </row>
     <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="E29" s="1">
         <v>38.215183949999997</v>
@@ -2969,22 +2969,22 @@
         <v>140.9755873</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" t="s">
+        <v>160</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K29" t="s">
-        <v>161</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="M29" s="1">
         <v>8</v>
@@ -2992,16 +2992,16 @@
     </row>
     <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="E30" s="1">
         <v>38.205183949999999</v>
@@ -3010,22 +3010,22 @@
         <v>140.96558730000001</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K30" t="s">
+        <v>161</v>
+      </c>
+      <c r="L30" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K30" t="s">
-        <v>162</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="M30" s="1">
         <v>8</v>
@@ -3033,16 +3033,16 @@
     </row>
     <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="E31" s="1">
         <v>38.195183950000001</v>
@@ -3051,22 +3051,22 @@
         <v>140.95558729999999</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" t="s">
+        <v>162</v>
+      </c>
+      <c r="L31" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K31" t="s">
-        <v>163</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="M31" s="1">
         <v>8</v>
@@ -3074,16 +3074,16 @@
     </row>
     <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E32" s="1">
         <v>38.420724139999997</v>
@@ -3092,22 +3092,22 @@
         <v>141.29088479999999</v>
       </c>
       <c r="G32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K32" t="s">
+        <v>163</v>
+      </c>
+      <c r="L32" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K32" t="s">
-        <v>164</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="M32" s="1">
         <v>9</v>
@@ -3115,16 +3115,16 @@
     </row>
     <row r="33" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="D33" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E33" s="1">
         <v>38.410724139999999</v>
@@ -3133,22 +3133,22 @@
         <v>141.2808848</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K33" t="s">
+        <v>164</v>
+      </c>
+      <c r="L33" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K33" t="s">
-        <v>165</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="M33" s="1">
         <v>9</v>
@@ -3156,16 +3156,16 @@
     </row>
     <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="D34" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E34" s="1">
         <v>38.400724140000001</v>
@@ -3174,22 +3174,22 @@
         <v>141.2708848</v>
       </c>
       <c r="G34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K34" t="s">
+        <v>165</v>
+      </c>
+      <c r="L34" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K34" t="s">
-        <v>166</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="M34" s="1">
         <v>9</v>
@@ -3197,16 +3197,16 @@
     </row>
     <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E35" s="1">
         <v>38.365365169999997</v>
@@ -3215,22 +3215,22 @@
         <v>141.15785460000001</v>
       </c>
       <c r="G35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K35" t="s">
+        <v>166</v>
+      </c>
+      <c r="L35" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K35" t="s">
-        <v>167</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="M35" s="1">
         <v>10</v>
@@ -3238,16 +3238,16 @@
     </row>
     <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="D36" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E36" s="1">
         <v>38.355365169999999</v>
@@ -3256,22 +3256,22 @@
         <v>141.14785459999999</v>
       </c>
       <c r="G36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K36" t="s">
+        <v>167</v>
+      </c>
+      <c r="L36" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K36" t="s">
-        <v>168</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="M36" s="1">
         <v>10</v>
@@ -3279,16 +3279,16 @@
     </row>
     <row r="37" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="D37" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E37" s="1">
         <v>38.345365170000001</v>
@@ -3297,22 +3297,22 @@
         <v>141.1378546</v>
       </c>
       <c r="G37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K37" t="s">
+        <v>168</v>
+      </c>
+      <c r="L37" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K37" t="s">
-        <v>169</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="M37" s="1">
         <v>10</v>
@@ -3320,16 +3320,16 @@
     </row>
     <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="D38" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E38" s="1">
         <v>38.25406701</v>
@@ -3338,22 +3338,22 @@
         <v>141.00777110000001</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K38" t="s">
+        <v>169</v>
+      </c>
+      <c r="L38" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K38" t="s">
-        <v>170</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="M38" s="1">
         <v>11</v>
@@ -3361,16 +3361,16 @@
     </row>
     <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="D39" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E39" s="1">
         <v>38.244067010000002</v>
@@ -3379,22 +3379,22 @@
         <v>140.99777109999999</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K39" t="s">
+        <v>170</v>
+      </c>
+      <c r="L39" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K39" t="s">
-        <v>171</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="M39" s="1">
         <v>11</v>
@@ -3402,16 +3402,16 @@
     </row>
     <row r="40" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="D40" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E40" s="1">
         <v>38.234067009999997</v>
@@ -3420,22 +3420,22 @@
         <v>140.9877711</v>
       </c>
       <c r="G40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K40" t="s">
+        <v>171</v>
+      </c>
+      <c r="L40" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K40" t="s">
-        <v>172</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="M40" s="1">
         <v>11</v>
@@ -3443,16 +3443,16 @@
     </row>
     <row r="41" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="D41" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E41" s="1">
         <v>38.188081390000001</v>
@@ -3461,22 +3461,22 @@
         <v>140.95540030000001</v>
       </c>
       <c r="G41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K41" t="s">
+        <v>172</v>
+      </c>
+      <c r="L41" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K41" t="s">
-        <v>173</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="M41" s="1">
         <v>12</v>
@@ -3484,16 +3484,16 @@
     </row>
     <row r="42" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="D42" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E42" s="1">
         <v>38.178081390000003</v>
@@ -3502,22 +3502,22 @@
         <v>140.94540029999999</v>
       </c>
       <c r="G42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K42" t="s">
+        <v>173</v>
+      </c>
+      <c r="L42" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K42" t="s">
-        <v>174</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="M42" s="1">
         <v>12</v>
@@ -3525,16 +3525,16 @@
     </row>
     <row r="43" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="D43" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E43" s="1">
         <v>38.168081389999998</v>
@@ -3543,22 +3543,22 @@
         <v>140.9354003</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K43" t="s">
+        <v>174</v>
+      </c>
+      <c r="L43" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K43" t="s">
-        <v>175</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="M43" s="1">
         <v>12</v>
@@ -3566,16 +3566,16 @@
     </row>
     <row r="44" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="D44" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E44" s="1">
         <v>38.117398180000002</v>
@@ -3584,22 +3584,22 @@
         <v>140.92932440000001</v>
       </c>
       <c r="G44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K44" t="s">
+        <v>175</v>
+      </c>
+      <c r="L44" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K44" t="s">
-        <v>176</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="M44" s="1">
         <v>13</v>
@@ -3607,16 +3607,16 @@
     </row>
     <row r="45" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="D45" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E45" s="1">
         <v>38.107398179999997</v>
@@ -3625,22 +3625,22 @@
         <v>140.91932439999999</v>
       </c>
       <c r="G45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K45" t="s">
+        <v>176</v>
+      </c>
+      <c r="L45" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K45" t="s">
-        <v>177</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="M45" s="1">
         <v>13</v>
@@ -3648,16 +3648,16 @@
     </row>
     <row r="46" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="D46" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E46" s="1">
         <v>38.097398179999999</v>
@@ -3666,22 +3666,22 @@
         <v>140.9093244</v>
       </c>
       <c r="G46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K46" t="s">
+        <v>177</v>
+      </c>
+      <c r="L46" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K46" t="s">
-        <v>178</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="M46" s="1">
         <v>13</v>
@@ -3689,16 +3689,16 @@
     </row>
     <row r="47" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="D47" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E47" s="1">
         <v>38.015495819999998</v>
@@ -3707,22 +3707,22 @@
         <v>140.90709749999999</v>
       </c>
       <c r="G47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K47" t="s">
+        <v>178</v>
+      </c>
+      <c r="L47" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K47" t="s">
-        <v>179</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="M47" s="1">
         <v>14</v>
@@ -3730,16 +3730,16 @@
     </row>
     <row r="48" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="D48" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E48" s="1">
         <v>38.00549582</v>
@@ -3748,22 +3748,22 @@
         <v>140.8970975</v>
       </c>
       <c r="G48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K48" t="s">
+        <v>179</v>
+      </c>
+      <c r="L48" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K48" t="s">
-        <v>180</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="M48" s="1">
         <v>14</v>
@@ -3771,16 +3771,16 @@
     </row>
     <row r="49" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="D49" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E49" s="1">
         <v>37.995495820000002</v>
@@ -3789,22 +3789,22 @@
         <v>140.88709750000001</v>
       </c>
       <c r="G49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K49" t="s">
+        <v>180</v>
+      </c>
+      <c r="L49" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K49" t="s">
-        <v>181</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="M49" s="1">
         <v>14</v>
@@ -3812,16 +3812,16 @@
     </row>
     <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="D50" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E50" s="1">
         <v>37.92633498</v>
@@ -3830,22 +3830,22 @@
         <v>140.91233489999999</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K50" t="s">
+        <v>181</v>
+      </c>
+      <c r="L50" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K50" t="s">
-        <v>182</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="M50" s="1">
         <v>15</v>
@@ -3853,16 +3853,16 @@
     </row>
     <row r="51" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="D51" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E51" s="1">
         <v>37.916334980000002</v>
@@ -3871,22 +3871,22 @@
         <v>140.9023349</v>
       </c>
       <c r="G51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K51" t="s">
+        <v>182</v>
+      </c>
+      <c r="L51" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K51" t="s">
-        <v>183</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="M51" s="1">
         <v>15</v>
@@ -3894,16 +3894,16 @@
     </row>
     <row r="52" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="D52" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E52" s="1">
         <v>37.906334979999997</v>
@@ -3912,22 +3912,22 @@
         <v>140.89233490000001</v>
       </c>
       <c r="G52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K52" t="s">
+        <v>183</v>
+      </c>
+      <c r="L52" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K52" t="s">
-        <v>184</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="M52" s="1">
         <v>15</v>
@@ -3935,16 +3935,16 @@
     </row>
     <row r="53" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="D53" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E53" s="1">
         <v>37.837338469999999</v>
@@ -3953,22 +3953,22 @@
         <v>140.9536028</v>
       </c>
       <c r="G53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K53" t="s">
+        <v>184</v>
+      </c>
+      <c r="L53" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K53" t="s">
-        <v>185</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="M53" s="1">
         <v>16</v>
@@ -3976,16 +3976,16 @@
     </row>
     <row r="54" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="D54" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E54" s="1">
         <v>37.827338470000001</v>
@@ -3994,22 +3994,22 @@
         <v>140.94360280000001</v>
       </c>
       <c r="G54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K54" t="s">
+        <v>185</v>
+      </c>
+      <c r="L54" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K54" t="s">
-        <v>186</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="M54" s="1">
         <v>16</v>
@@ -4017,16 +4017,16 @@
     </row>
     <row r="55" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="D55" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E55" s="1">
         <v>37.817338470000003</v>
@@ -4035,22 +4035,22 @@
         <v>140.93360279999999</v>
       </c>
       <c r="G55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K55" t="s">
+        <v>186</v>
+      </c>
+      <c r="L55" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K55" t="s">
-        <v>187</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="M55" s="1">
         <v>16</v>
@@ -4058,13 +4058,13 @@
     </row>
     <row r="56" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E56" s="1">
         <v>40.529699999999998</v>
@@ -4073,22 +4073,22 @@
         <v>141.54386</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H56" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K56" t="s">
+        <v>187</v>
+      </c>
+      <c r="L56" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K56" t="s">
-        <v>188</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M56" s="1">
         <v>20</v>
@@ -4096,13 +4096,13 @@
     </row>
     <row r="57" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E57" s="1">
         <v>40.527574999999999</v>
@@ -4111,22 +4111,22 @@
         <v>141.545569</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H57" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K57" t="s">
+        <v>188</v>
+      </c>
+      <c r="L57" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K57" t="s">
-        <v>189</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M57" s="1">
         <v>20</v>
@@ -4134,13 +4134,13 @@
     </row>
     <row r="58" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E58" s="1">
         <v>40.526394400000001</v>
@@ -4149,22 +4149,22 @@
         <v>141.54416000000001</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H58" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K58" t="s">
+        <v>189</v>
+      </c>
+      <c r="L58" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K58" t="s">
-        <v>190</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M58" s="1">
         <v>20</v>
@@ -4172,13 +4172,13 @@
     </row>
     <row r="59" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E59" s="1">
         <v>40.526547000000001</v>
@@ -4187,22 +4187,22 @@
         <v>141.53582700000001</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H59" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K59" t="s">
+        <v>190</v>
+      </c>
+      <c r="L59" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K59" t="s">
-        <v>191</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M59" s="1">
         <v>21</v>
@@ -4210,13 +4210,13 @@
     </row>
     <row r="60" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E60" s="1">
         <v>40.525100000000002</v>
@@ -4225,22 +4225,22 @@
         <v>141.53926100000001</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H60" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K60" t="s">
+        <v>191</v>
+      </c>
+      <c r="L60" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K60" t="s">
-        <v>192</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M60" s="1">
         <v>21</v>
@@ -4248,13 +4248,13 @@
     </row>
     <row r="61" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E61" s="1">
         <v>40.525500000000001</v>
@@ -4263,22 +4263,22 @@
         <v>141.541552</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H61" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K61" t="s">
+        <v>192</v>
+      </c>
+      <c r="L61" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K61" t="s">
-        <v>193</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M61" s="1">
         <v>21</v>
@@ -4286,13 +4286,13 @@
     </row>
     <row r="62" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E62" s="1">
         <v>38.417000000000002</v>
@@ -4301,22 +4301,22 @@
         <v>141.31949</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H62" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K62" t="s">
+        <v>193</v>
+      </c>
+      <c r="L62" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K62" t="s">
-        <v>194</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M62" s="1">
         <v>22</v>
@@ -4324,13 +4324,13 @@
     </row>
     <row r="63" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E63" s="1">
         <v>38.418968999999997</v>
@@ -4339,22 +4339,22 @@
         <v>141.33782199999999</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H63" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K63" t="s">
+        <v>194</v>
+      </c>
+      <c r="L63" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K63" t="s">
-        <v>195</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M63" s="1">
         <v>22</v>
@@ -4362,13 +4362,13 @@
     </row>
     <row r="64" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E64" s="1">
         <v>38.419832999999997</v>
@@ -4377,22 +4377,22 @@
         <v>141.33838800000001</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H64" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K64" t="s">
+        <v>195</v>
+      </c>
+      <c r="L64" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K64" t="s">
-        <v>196</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M64" s="1">
         <v>22</v>
@@ -4400,13 +4400,13 @@
     </row>
     <row r="65" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E65" s="1">
         <v>38.419550000000001</v>
@@ -4415,22 +4415,22 @@
         <v>141.29245</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H65" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K65" t="s">
+        <v>196</v>
+      </c>
+      <c r="L65" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K65" t="s">
-        <v>197</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M65" s="1">
         <v>23</v>
@@ -4438,13 +4438,13 @@
     </row>
     <row r="66" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E66" s="1">
         <v>38.42342</v>
@@ -4453,22 +4453,22 @@
         <v>141.27800999999999</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H66" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K66" t="s">
+        <v>197</v>
+      </c>
+      <c r="L66" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K66" t="s">
-        <v>198</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M66" s="1">
         <v>23</v>
@@ -4476,13 +4476,13 @@
     </row>
     <row r="67" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E67" s="1">
         <v>38.418121999999997</v>
@@ -4491,22 +4491,22 @@
         <v>141.260436</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H67" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K67" t="s">
+        <v>198</v>
+      </c>
+      <c r="L67" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K67" t="s">
-        <v>199</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M67" s="1">
         <v>23</v>
@@ -4514,13 +4514,13 @@
     </row>
     <row r="68" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E68" s="1">
         <v>40.193055559999998</v>
@@ -4529,22 +4529,22 @@
         <v>141.8002778</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H68" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K68" t="s">
+        <v>199</v>
+      </c>
+      <c r="L68" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K68" t="s">
-        <v>200</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M68" s="1">
         <v>24</v>
@@ -4552,13 +4552,13 @@
     </row>
     <row r="69" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E69" s="1">
         <v>40.196111109999997</v>
@@ -4567,22 +4567,22 @@
         <v>141.79972219999999</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H69" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K69" t="s">
+        <v>200</v>
+      </c>
+      <c r="L69" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K69" t="s">
-        <v>201</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M69" s="1">
         <v>24</v>
@@ -4590,13 +4590,13 @@
     </row>
     <row r="70" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E70" s="1">
         <v>40.19277778</v>
@@ -4605,22 +4605,22 @@
         <v>141.8027778</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H70" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K70" t="s">
+        <v>201</v>
+      </c>
+      <c r="L70" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K70" t="s">
-        <v>202</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M70" s="1">
         <v>24</v>
@@ -4628,13 +4628,13 @@
     </row>
     <row r="71" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E71" s="1">
         <v>38.41333333</v>
@@ -4643,22 +4643,22 @@
         <v>141.32027780000001</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H71" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K71" t="s">
+        <v>202</v>
+      </c>
+      <c r="L71" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K71" t="s">
-        <v>203</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M71" s="1">
         <v>25</v>
@@ -4666,13 +4666,13 @@
     </row>
     <row r="72" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E72" s="1">
         <v>38.413611109999998</v>
@@ -4681,22 +4681,22 @@
         <v>141.32611109999999</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H72" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K72" t="s">
+        <v>203</v>
+      </c>
+      <c r="L72" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K72" t="s">
-        <v>204</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M72" s="1">
         <v>25</v>
@@ -4704,13 +4704,13 @@
     </row>
     <row r="73" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E73" s="1">
         <v>38.413888890000003</v>
@@ -4719,22 +4719,22 @@
         <v>141.33138890000001</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H73" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K73" t="s">
+        <v>204</v>
+      </c>
+      <c r="L73" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K73" t="s">
-        <v>205</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M73" s="1">
         <v>25</v>
@@ -4742,13 +4742,13 @@
     </row>
     <row r="74" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E74" s="1">
         <v>38.26583333</v>
@@ -4757,22 +4757,22 @@
         <v>140.99583329999999</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K74" t="s">
+        <v>205</v>
+      </c>
+      <c r="L74" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K74" t="s">
-        <v>206</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M74" s="1">
         <v>26</v>
@@ -4780,13 +4780,13 @@
     </row>
     <row r="75" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E75" s="1">
         <v>38.265555560000003</v>
@@ -4795,22 +4795,22 @@
         <v>141.0025</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H75" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K75" t="s">
+        <v>206</v>
+      </c>
+      <c r="L75" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K75" t="s">
-        <v>207</v>
-      </c>
-      <c r="L75" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M75" s="1">
         <v>26</v>
@@ -4818,13 +4818,13 @@
     </row>
     <row r="76" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E76" s="1">
         <v>38.265555560000003</v>
@@ -4833,22 +4833,22 @@
         <v>141.00888889999999</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H76" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K76" t="s">
+        <v>207</v>
+      </c>
+      <c r="L76" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K76" t="s">
-        <v>208</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M76" s="1">
         <v>26</v>
@@ -4856,13 +4856,13 @@
     </row>
     <row r="77" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E77" s="1">
         <v>38.263333330000002</v>
@@ -4871,22 +4871,22 @@
         <v>140.99722220000001</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H77" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K77" t="s">
+        <v>208</v>
+      </c>
+      <c r="L77" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K77" t="s">
-        <v>209</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M77" s="1">
         <v>27</v>
@@ -4894,13 +4894,13 @@
     </row>
     <row r="78" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E78" s="1">
         <v>38.263055559999998</v>
@@ -4909,22 +4909,22 @@
         <v>141.00277779999999</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H78" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K78" t="s">
+        <v>209</v>
+      </c>
+      <c r="L78" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K78" t="s">
-        <v>210</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M78" s="1">
         <v>27</v>
@@ -4932,13 +4932,13 @@
     </row>
     <row r="79" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E79" s="1">
         <v>38.26277778</v>
@@ -4947,22 +4947,22 @@
         <v>141.00916670000001</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H79" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K79" t="s">
+        <v>210</v>
+      </c>
+      <c r="L79" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K79" t="s">
-        <v>211</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M79" s="1">
         <v>27</v>
@@ -4970,13 +4970,13 @@
     </row>
     <row r="80" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E80">
         <v>38.276111110000002</v>
@@ -4985,22 +4985,22 @@
         <v>141.02111110000001</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H80" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K80" t="s">
+        <v>211</v>
+      </c>
+      <c r="L80" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K80" t="s">
-        <v>212</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M80" s="1">
         <v>28</v>
@@ -5008,13 +5008,13 @@
     </row>
     <row r="81" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E81">
         <v>38.27638889</v>
@@ -5023,22 +5023,22 @@
         <v>141.0141667</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H81" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K81" t="s">
+        <v>212</v>
+      </c>
+      <c r="L81" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K81" t="s">
-        <v>213</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M81" s="1">
         <v>28</v>
@@ -5046,13 +5046,13 @@
     </row>
     <row r="82" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E82">
         <v>38.276111110000002</v>
@@ -5061,22 +5061,22 @@
         <v>141.00749999999999</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H82" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K82" t="s">
+        <v>213</v>
+      </c>
+      <c r="L82" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K82" t="s">
-        <v>214</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M82" s="1">
         <v>28</v>
@@ -5084,13 +5084,13 @@
     </row>
     <row r="83" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E83">
         <v>38.281111109999998</v>
@@ -5099,22 +5099,22 @@
         <v>141.02138890000001</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H83" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K83" t="s">
+        <v>214</v>
+      </c>
+      <c r="L83" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K83" t="s">
-        <v>215</v>
-      </c>
-      <c r="L83" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M83" s="1">
         <v>29</v>
@@ -5122,13 +5122,13 @@
     </row>
     <row r="84" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E84">
         <v>38.281111109999998</v>
@@ -5137,22 +5137,22 @@
         <v>141.0141667</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H84" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K84" t="s">
+        <v>215</v>
+      </c>
+      <c r="L84" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K84" t="s">
-        <v>216</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M84" s="1">
         <v>29</v>
@@ -5160,13 +5160,13 @@
     </row>
     <row r="85" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E85">
         <v>38.28166667</v>
@@ -5175,22 +5175,22 @@
         <v>141.0083333</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H85" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K85" t="s">
+        <v>216</v>
+      </c>
+      <c r="L85" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K85" t="s">
-        <v>217</v>
-      </c>
-      <c r="L85" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M85" s="1">
         <v>29</v>
@@ -5198,13 +5198,13 @@
     </row>
     <row r="86" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E86">
         <v>37.826944439999998</v>
@@ -5213,22 +5213,22 @@
         <v>140.9447222</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H86" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K86" t="s">
+        <v>217</v>
+      </c>
+      <c r="L86" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K86" t="s">
-        <v>218</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M86" s="1">
         <v>28</v>
@@ -5236,13 +5236,13 @@
     </row>
     <row r="87" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E87">
         <v>37.830277780000003</v>
@@ -5251,22 +5251,22 @@
         <v>140.9436111</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H87" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K87" t="s">
+        <v>218</v>
+      </c>
+      <c r="L87" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K87" t="s">
-        <v>219</v>
-      </c>
-      <c r="L87" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M87" s="1">
         <v>28</v>
@@ -5274,13 +5274,13 @@
     </row>
     <row r="88" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E88">
         <v>37.82833333</v>
@@ -5289,22 +5289,22 @@
         <v>140.94194440000001</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H88" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K88" t="s">
+        <v>219</v>
+      </c>
+      <c r="L88" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K88" t="s">
-        <v>220</v>
-      </c>
-      <c r="L88" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M88" s="1">
         <v>28</v>
@@ -5312,13 +5312,13 @@
     </row>
     <row r="89" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E89">
         <v>37.843611109999998</v>
@@ -5327,22 +5327,22 @@
         <v>140.9447222</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H89" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K89" t="s">
+        <v>220</v>
+      </c>
+      <c r="L89" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K89" t="s">
-        <v>221</v>
-      </c>
-      <c r="L89" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M89" s="1">
         <v>29</v>
@@ -5350,13 +5350,13 @@
     </row>
     <row r="90" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E90">
         <v>37.842222219999996</v>
@@ -5365,22 +5365,22 @@
         <v>140.94555560000001</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H90" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K90" t="s">
+        <v>221</v>
+      </c>
+      <c r="L90" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K90" t="s">
-        <v>222</v>
-      </c>
-      <c r="L90" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M90" s="1">
         <v>29</v>
@@ -5388,13 +5388,13 @@
     </row>
     <row r="91" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E91">
         <v>37.841666670000002</v>
@@ -5403,22 +5403,22 @@
         <v>140.9472222</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H91" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K91" t="s">
+        <v>222</v>
+      </c>
+      <c r="L91" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K91" t="s">
-        <v>223</v>
-      </c>
-      <c r="L91" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M91" s="1">
         <v>29</v>
@@ -5426,13 +5426,13 @@
     </row>
     <row r="92" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E92">
         <v>36.93972222</v>
@@ -5441,22 +5441,22 @@
         <v>140.88416670000001</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H92" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K92" t="s">
+        <v>223</v>
+      </c>
+      <c r="L92" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K92" t="s">
-        <v>224</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M92" s="1">
         <v>30</v>
@@ -5464,13 +5464,13 @@
     </row>
     <row r="93" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E93">
         <v>36.94277778</v>
@@ -5479,22 +5479,22 @@
         <v>140.88388889999999</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H93" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K93" t="s">
+        <v>224</v>
+      </c>
+      <c r="L93" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K93" t="s">
-        <v>225</v>
-      </c>
-      <c r="L93" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M93" s="1">
         <v>30</v>
@@ -5502,13 +5502,13 @@
     </row>
     <row r="94" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E94">
         <v>36.943611109999999</v>
@@ -5517,22 +5517,22 @@
         <v>140.88027779999999</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H94" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K94" t="s">
+        <v>225</v>
+      </c>
+      <c r="L94" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K94" t="s">
-        <v>226</v>
-      </c>
-      <c r="L94" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M94" s="1">
         <v>30</v>
@@ -5540,13 +5540,13 @@
     </row>
     <row r="95" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E95">
         <v>36.942500000000003</v>
@@ -5555,22 +5555,22 @@
         <v>140.88888890000001</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H95" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K95" t="s">
+        <v>226</v>
+      </c>
+      <c r="L95" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K95" t="s">
-        <v>227</v>
-      </c>
-      <c r="L95" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M95" s="1">
         <v>31</v>
@@ -5578,13 +5578,13 @@
     </row>
     <row r="96" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E96">
         <v>36.945277779999998</v>
@@ -5593,22 +5593,22 @@
         <v>140.8883333</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H96" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K96" t="s">
+        <v>227</v>
+      </c>
+      <c r="L96" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K96" t="s">
-        <v>228</v>
-      </c>
-      <c r="L96" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M96" s="1">
         <v>31</v>
@@ -5616,13 +5616,13 @@
     </row>
     <row r="97" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E97">
         <v>36.946944440000003</v>
@@ -5631,22 +5631,22 @@
         <v>140.88499999999999</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H97" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K97" t="s">
+        <v>228</v>
+      </c>
+      <c r="L97" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K97" t="s">
-        <v>229</v>
-      </c>
-      <c r="L97" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M97" s="1">
         <v>31</v>
@@ -5654,13 +5654,13 @@
     </row>
     <row r="98" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E98">
         <v>36.503888889999999</v>
@@ -5669,22 +5669,22 @@
         <v>140.6202778</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H98" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K98" t="s">
+        <v>229</v>
+      </c>
+      <c r="L98" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K98" t="s">
-        <v>230</v>
-      </c>
-      <c r="L98" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M98" s="1">
         <v>28</v>
@@ -5692,13 +5692,13 @@
     </row>
     <row r="99" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E99">
         <v>36.505555559999998</v>
@@ -5707,22 +5707,22 @@
         <v>140.61861110000001</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H99" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K99" t="s">
+        <v>230</v>
+      </c>
+      <c r="L99" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K99" t="s">
-        <v>231</v>
-      </c>
-      <c r="L99" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M99" s="1">
         <v>28</v>
@@ -5730,13 +5730,13 @@
     </row>
     <row r="100" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E100">
         <v>36.506111109999999</v>
@@ -5745,22 +5745,22 @@
         <v>140.62166669999999</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H100" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K100" t="s">
+        <v>231</v>
+      </c>
+      <c r="L100" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K100" t="s">
-        <v>232</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M100" s="1">
         <v>28</v>
@@ -5768,13 +5768,13 @@
     </row>
     <row r="101" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E101">
         <v>36.504166669999996</v>
@@ -5783,22 +5783,22 @@
         <v>140.62305559999999</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H101" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K101" t="s">
+        <v>232</v>
+      </c>
+      <c r="L101" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K101" t="s">
-        <v>233</v>
-      </c>
-      <c r="L101" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M101" s="1">
         <v>29</v>
@@ -5806,13 +5806,13 @@
     </row>
     <row r="102" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E102">
         <v>36.504166669999996</v>
@@ -5821,22 +5821,22 @@
         <v>140.62638889999999</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H102" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K102" t="s">
+        <v>233</v>
+      </c>
+      <c r="L102" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K102" t="s">
-        <v>234</v>
-      </c>
-      <c r="L102" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M102" s="1">
         <v>29</v>
@@ -5844,13 +5844,13 @@
     </row>
     <row r="103" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E103">
         <v>36.507777779999998</v>
@@ -5859,22 +5859,22 @@
         <v>140.62</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H103" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K103" t="s">
+        <v>234</v>
+      </c>
+      <c r="L103" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K103" t="s">
-        <v>235</v>
-      </c>
-      <c r="L103" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="M103" s="1">
         <v>29</v>
@@ -5882,16 +5882,16 @@
     </row>
     <row r="104" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E104" s="1">
         <v>6.9270779999999998</v>
@@ -5900,22 +5900,22 @@
         <v>79.861242000000004</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K104" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M104" s="1">
         <v>19</v>
@@ -5923,16 +5923,16 @@
     </row>
     <row r="105" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E105" s="1">
         <v>6.9310780000000003</v>
@@ -5941,22 +5941,22 @@
         <v>79.861242000000004</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I105" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J105" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J105" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="K105" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M105" s="1">
         <v>19</v>
@@ -5964,16 +5964,16 @@
     </row>
     <row r="106" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E106" s="1">
         <v>6.9350779999999999</v>
@@ -5982,22 +5982,22 @@
         <v>79.861242000000004</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I106" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J106" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J106" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="K106" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M106" s="1">
         <v>19</v>
@@ -6005,16 +6005,16 @@
     </row>
     <row r="107" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C107" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E107" s="1">
         <v>6.911308</v>
@@ -6023,22 +6023,22 @@
         <v>79.877477999999996</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K107" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M107" s="1">
         <v>19</v>
@@ -6046,16 +6046,16 @@
     </row>
     <row r="108" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C108" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E108" s="1">
         <v>6.9153079999999996</v>
@@ -6064,22 +6064,22 @@
         <v>79.877477999999996</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I108" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J108" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J108" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="K108" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M108" s="1">
         <v>19</v>
@@ -6087,16 +6087,16 @@
     </row>
     <row r="109" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C109" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E109" s="1">
         <v>6.919308</v>
@@ -6105,22 +6105,22 @@
         <v>79.877477999999996</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I109" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J109" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J109" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="K109" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M109" s="1">
         <v>19</v>
@@ -6128,16 +6128,16 @@
     </row>
     <row r="110" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C110" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E110" s="1">
         <v>6.8301189999999998</v>
@@ -6146,22 +6146,22 @@
         <v>79.880082999999999</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K110" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M110" s="1">
         <v>19</v>
@@ -6169,16 +6169,16 @@
     </row>
     <row r="111" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C111" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E111" s="1">
         <v>6.8321189999999996</v>
@@ -6187,22 +6187,22 @@
         <v>79.880082999999999</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I111" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J111" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J111" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="K111" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M111" s="1">
         <v>19</v>
@@ -6210,16 +6210,16 @@
     </row>
     <row r="112" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C112" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E112" s="1">
         <v>6.8341190000000003</v>
@@ -6228,22 +6228,22 @@
         <v>79.880082999999999</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I112" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J112" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J112" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="K112" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M112" s="1">
         <v>19</v>
@@ -6251,16 +6251,16 @@
     </row>
     <row r="113" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C113" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E113" s="1">
         <v>6.8195439999999996</v>
@@ -6269,22 +6269,22 @@
         <v>79.880082999999999</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K113" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M113" s="1">
         <v>19</v>
@@ -6292,16 +6292,16 @@
     </row>
     <row r="114" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C114" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E114" s="1">
         <v>6.8215440000000003</v>
@@ -6310,22 +6310,22 @@
         <v>79.880082999999999</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I114" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J114" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J114" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="K114" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M114" s="1">
         <v>19</v>
@@ -6333,16 +6333,16 @@
     </row>
     <row r="115" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C115" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E115" s="1">
         <v>6.8235440000000001</v>
@@ -6351,22 +6351,22 @@
         <v>79.880082999999999</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I115" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J115" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J115" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="K115" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M115" s="1">
         <v>19</v>
@@ -6374,16 +6374,16 @@
     </row>
     <row r="116" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C116" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E116" s="1">
         <v>6.7880690000000001</v>
@@ -6392,22 +6392,22 @@
         <v>79.891281000000006</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K116" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M116" s="1">
         <v>19</v>
@@ -6415,16 +6415,16 @@
     </row>
     <row r="117" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C117" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E117" s="1">
         <v>6.7920689999999997</v>
@@ -6433,22 +6433,22 @@
         <v>79.891281000000006</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I117" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J117" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J117" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="K117" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M117" s="1">
         <v>19</v>
@@ -6456,16 +6456,16 @@
     </row>
     <row r="118" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C118" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E118" s="1">
         <v>6.7960690000000001</v>
@@ -6474,22 +6474,22 @@
         <v>79.891281000000006</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I118" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J118" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J118" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="K118" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M118" s="1">
         <v>19</v>
@@ -6497,16 +6497,16 @@
     </row>
     <row r="119" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C119" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E119" s="1">
         <v>6.4189170000000004</v>
@@ -6515,22 +6515,22 @@
         <v>80.005977999999999</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K119" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M119" s="1">
         <v>19</v>
@@ -6538,16 +6538,16 @@
     </row>
     <row r="120" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C120" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E120" s="1">
         <v>6.422917</v>
@@ -6556,22 +6556,22 @@
         <v>80.005977999999999</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I120" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J120" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J120" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="K120" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M120" s="1">
         <v>19</v>
@@ -6579,16 +6579,16 @@
     </row>
     <row r="121" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C121" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E121" s="1">
         <v>6.4269170000000004</v>
@@ -6597,22 +6597,22 @@
         <v>80.005977999999999</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I121" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J121" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J121" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="K121" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M121" s="1">
         <v>19</v>
@@ -6620,16 +6620,16 @@
     </row>
     <row r="122" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C122" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E122" s="1">
         <v>6.2783559999999996</v>
@@ -6638,22 +6638,22 @@
         <v>80.040306000000001</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K122" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M122" s="1">
         <v>19</v>
@@ -6661,16 +6661,16 @@
     </row>
     <row r="123" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C123" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E123" s="1">
         <v>6.2823560000000001</v>
@@ -6679,22 +6679,22 @@
         <v>80.040306000000001</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I123" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J123" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J123" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="K123" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M123" s="1">
         <v>19</v>
@@ -6702,16 +6702,16 @@
     </row>
     <row r="124" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C124" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E124" s="1">
         <v>6.2863559999999996</v>
@@ -6720,22 +6720,22 @@
         <v>80.040306000000001</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I124" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J124" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J124" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="K124" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M124" s="1">
         <v>19</v>
@@ -6743,16 +6743,16 @@
     </row>
     <row r="125" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C125" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E125" s="1">
         <v>6.2441529999999998</v>
@@ -6761,22 +6761,22 @@
         <v>80.059081000000006</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K125" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M125" s="1">
         <v>19</v>
@@ -6784,16 +6784,16 @@
     </row>
     <row r="126" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C126" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E126" s="1">
         <v>6.2481530000000003</v>
@@ -6802,22 +6802,22 @@
         <v>80.059081000000006</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I126" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J126" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J126" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="K126" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M126" s="1">
         <v>19</v>
@@ -6825,16 +6825,16 @@
     </row>
     <row r="127" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C127" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E127" s="1">
         <v>6.2521529999999998</v>
@@ -6843,22 +6843,22 @@
         <v>80.059081000000006</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I127" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J127" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J127" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="K127" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M127" s="1">
         <v>19</v>
@@ -6866,16 +6866,16 @@
     </row>
     <row r="128" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C128" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E128" s="1">
         <v>6.1394690000000001</v>
@@ -6884,22 +6884,22 @@
         <v>80.106285999999997</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K128" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M128" s="1">
         <v>19</v>
@@ -6907,16 +6907,16 @@
     </row>
     <row r="129" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C129" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E129" s="1">
         <v>6.1434689999999996</v>
@@ -6925,22 +6925,22 @@
         <v>80.106285999999997</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I129" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J129" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J129" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="K129" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M129" s="1">
         <v>19</v>
@@ -6948,16 +6948,16 @@
     </row>
     <row r="130" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C130" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E130" s="1">
         <v>6.1464689999999997</v>
@@ -6966,22 +6966,22 @@
         <v>80.106285999999997</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I130" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J130" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J130" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="K130" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M130" s="1">
         <v>19</v>
@@ -6989,16 +6989,16 @@
     </row>
     <row r="131" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C131" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D131" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E131" s="1">
         <v>6.0456640000000004</v>
@@ -7007,22 +7007,22 @@
         <v>80.224896999999999</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K131" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M131" s="1">
         <v>19</v>
@@ -7030,16 +7030,16 @@
     </row>
     <row r="132" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C132" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E132" s="1">
         <v>6.0496639999999999</v>
@@ -7048,22 +7048,22 @@
         <v>80.224896999999999</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I132" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J132" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J132" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="K132" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M132" s="1">
         <v>19</v>
@@ -7071,16 +7071,16 @@
     </row>
     <row r="133" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C133" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D133" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E133" s="1">
         <v>6.0536640000000004</v>
@@ -7089,22 +7089,22 @@
         <v>80.224896999999999</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I133" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J133" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J133" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="K133" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M133" s="1">
         <v>19</v>
@@ -7112,16 +7112,16 @@
     </row>
     <row r="134" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C134" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E134" s="1">
         <v>5.9983579999999996</v>
@@ -7130,22 +7130,22 @@
         <v>80.307818999999995</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K134" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M134" s="1">
         <v>19</v>
@@ -7153,16 +7153,16 @@
     </row>
     <row r="135" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C135" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D135" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E135" s="1">
         <v>6.0023580000000001</v>
@@ -7171,22 +7171,22 @@
         <v>80.307818999999995</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I135" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J135" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J135" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="K135" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M135" s="1">
         <v>19</v>
@@ -7194,16 +7194,16 @@
     </row>
     <row r="136" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C136" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E136" s="1">
         <v>6.0063579999999996</v>
@@ -7212,22 +7212,22 @@
         <v>80.307818999999995</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I136" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J136" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J136" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="K136" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M136" s="1">
         <v>19</v>
@@ -7235,16 +7235,16 @@
     </row>
     <row r="137" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C137" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D137" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E137" s="1">
         <v>7.2007969999999997</v>
@@ -7253,22 +7253,22 @@
         <v>79.873675000000006</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K137" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M137" s="1">
         <v>19</v>
@@ -7276,16 +7276,16 @@
     </row>
     <row r="138" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C138" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E138" s="1">
         <v>7.2047970000000001</v>
@@ -7294,22 +7294,22 @@
         <v>79.873675000000006</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I138" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J138" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J138" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="K138" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M138" s="1">
         <v>19</v>
@@ -7317,16 +7317,16 @@
     </row>
     <row r="139" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C139" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E139" s="1">
         <v>7.2087969999999997</v>
@@ -7335,22 +7335,22 @@
         <v>79.873675000000006</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I139" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J139" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J139" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="K139" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M139" s="1">
         <v>19</v>
@@ -7358,16 +7358,16 @@
     </row>
     <row r="140" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C140" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E140" s="1">
         <v>6.9906670000000002</v>
@@ -7376,22 +7376,22 @@
         <v>79.893172000000007</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K140" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M140" s="1">
         <v>19</v>
@@ -7399,16 +7399,16 @@
     </row>
     <row r="141" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C141" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E141" s="1">
         <v>6.9946669999999997</v>
@@ -7417,22 +7417,22 @@
         <v>79.893172000000007</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I141" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J141" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J141" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="K141" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M141" s="1">
         <v>19</v>
@@ -7440,16 +7440,16 @@
     </row>
     <row r="142" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C142" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E142" s="1">
         <v>6.9986670000000002</v>
@@ -7458,22 +7458,22 @@
         <v>79.893172000000007</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I142" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J142" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J142" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="K142" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M142" s="1">
         <v>19</v>
@@ -7481,16 +7481,16 @@
     </row>
     <row r="143" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C143" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E143" s="1">
         <v>6.710636</v>
@@ -7499,22 +7499,22 @@
         <v>79.907425000000003</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K143" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M143" s="1">
         <v>19</v>
@@ -7522,16 +7522,16 @@
     </row>
     <row r="144" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C144" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E144" s="1">
         <v>6.7146359999999996</v>
@@ -7540,22 +7540,22 @@
         <v>79.907425000000003</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I144" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J144" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J144" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="K144" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M144" s="1">
         <v>19</v>
@@ -7563,16 +7563,16 @@
     </row>
     <row r="145" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C145" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E145" s="1">
         <v>6.7186360000000001</v>
@@ -7581,22 +7581,22 @@
         <v>79.907425000000003</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I145" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J145" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J145" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="K145" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M145" s="1">
         <v>19</v>
@@ -7604,16 +7604,16 @@
     </row>
     <row r="146" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C146" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E146" s="1">
         <v>6.585394</v>
@@ -7622,22 +7622,22 @@
         <v>79.960739000000004</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K146" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M146" s="1">
         <v>19</v>
@@ -7645,16 +7645,16 @@
     </row>
     <row r="147" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C147" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E147" s="1">
         <v>6.5893940000000004</v>
@@ -7663,22 +7663,22 @@
         <v>79.960739000000004</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I147" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J147" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J147" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="K147" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M147" s="1">
         <v>19</v>
@@ -7686,16 +7686,16 @@
     </row>
     <row r="148" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C148" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E148" s="1">
         <v>6.593394</v>
@@ -7704,22 +7704,22 @@
         <v>79.960739000000004</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I148" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J148" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J148" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="K148" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M148" s="1">
         <v>19</v>
@@ -7727,16 +7727,16 @@
     </row>
     <row r="149" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C149" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E149" s="1">
         <v>6.4738389999999999</v>
@@ -7745,22 +7745,22 @@
         <v>79.992000000000004</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K149" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M149" s="1">
         <v>19</v>
@@ -7768,16 +7768,16 @@
     </row>
     <row r="150" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C150" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D150" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E150" s="1">
         <v>6.476839</v>
@@ -7786,22 +7786,22 @@
         <v>79.992000000000004</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I150" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J150" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J150" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="K150" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M150" s="1">
         <v>19</v>
@@ -7809,16 +7809,16 @@
     </row>
     <row r="151" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C151" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E151" s="1">
         <v>6.4808389999999996</v>
@@ -7827,22 +7827,22 @@
         <v>79.992000000000004</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I151" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J151" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J151" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="K151" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M151" s="1">
         <v>19</v>
@@ -7850,16 +7850,16 @@
     </row>
     <row r="152" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C152" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D152" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E152" s="1">
         <v>5.9773779999999999</v>
@@ -7868,22 +7868,22 @@
         <v>80.428847000000005</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K152" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M152" s="1">
         <v>19</v>
@@ -7891,16 +7891,16 @@
     </row>
     <row r="153" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C153" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E153" s="1">
         <v>5.9813780000000003</v>
@@ -7909,22 +7909,22 @@
         <v>80.428847000000005</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I153" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J153" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J153" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="K153" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M153" s="1">
         <v>19</v>
@@ -7932,16 +7932,16 @@
     </row>
     <row r="154" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C154" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E154" s="1">
         <v>5.9853779999999999</v>
@@ -7950,22 +7950,22 @@
         <v>80.428847000000005</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I154" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J154" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J154" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="K154" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M154" s="1">
         <v>19</v>
@@ -7973,16 +7973,16 @@
     </row>
     <row r="155" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C155" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D155" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E155" s="1">
         <v>5.952636</v>
@@ -7991,22 +7991,22 @@
         <v>80.535083</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K155" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M155" s="1">
         <v>19</v>
@@ -8014,16 +8014,16 @@
     </row>
     <row r="156" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C156" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E156" s="1">
         <v>5.9566359999999996</v>
@@ -8032,22 +8032,22 @@
         <v>80.535083</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I156" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J156" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J156" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="K156" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M156" s="1">
         <v>19</v>
@@ -8055,16 +8055,16 @@
     </row>
     <row r="157" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C157" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E157" s="1">
         <v>5.960636</v>
@@ -8073,22 +8073,22 @@
         <v>80.535083</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I157" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J157" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J157" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="K157" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M157" s="1">
         <v>19</v>
@@ -8096,16 +8096,16 @@
     </row>
     <row r="158" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C158" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E158" s="1">
         <v>5.9312560000000003</v>
@@ -8114,22 +8114,22 @@
         <v>80.591432999999995</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K158" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M158" s="1">
         <v>19</v>
@@ -8137,16 +8137,16 @@
     </row>
     <row r="159" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C159" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E159" s="1">
         <v>5.9352559999999999</v>
@@ -8155,22 +8155,22 @@
         <v>80.591432999999995</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I159" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J159" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J159" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="K159" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L159" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M159" s="1">
         <v>19</v>
@@ -8178,16 +8178,16 @@
     </row>
     <row r="160" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C160" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E160" s="1">
         <v>5.9392560000000003</v>
@@ -8196,22 +8196,22 @@
         <v>80.591432999999995</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I160" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J160" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J160" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="K160" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L160" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M160" s="1">
         <v>19</v>
@@ -8219,16 +8219,16 @@
     </row>
     <row r="161" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C161" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E161" s="1">
         <v>5.9716750000000003</v>
@@ -8237,22 +8237,22 @@
         <v>80.695103000000003</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K161" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M161" s="1">
         <v>19</v>
@@ -8260,16 +8260,16 @@
     </row>
     <row r="162" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C162" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D162" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E162" s="1">
         <v>5.9756749999999998</v>
@@ -8278,22 +8278,22 @@
         <v>80.695103000000003</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I162" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J162" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J162" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="K162" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L162" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M162" s="1">
         <v>19</v>
@@ -8301,16 +8301,16 @@
     </row>
     <row r="163" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C163" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D163" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E163" s="1">
         <v>5.9796750000000003</v>
@@ -8319,22 +8319,22 @@
         <v>80.695103000000003</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I163" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J163" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J163" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="K163" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M163" s="1">
         <v>19</v>
@@ -8342,16 +8342,16 @@
     </row>
     <row r="164" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C164" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D164" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E164" s="1">
         <v>6.4635156499999997</v>
@@ -8360,22 +8360,22 @@
         <v>80.100600549999996</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K164" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M164" s="1">
         <v>19</v>
@@ -8383,16 +8383,16 @@
     </row>
     <row r="165" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C165" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D165" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E165" s="1">
         <v>6.4557896110000001</v>
@@ -8401,22 +8401,22 @@
         <v>80.104589860000004</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I165" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J165" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J165" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="K165" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M165" s="1">
         <v>19</v>
@@ -8424,16 +8424,16 @@
     </row>
     <row r="166" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C166" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E166" s="1">
         <v>6.4478681379999996</v>
@@ -8442,22 +8442,22 @@
         <v>80.108645659999993</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I166" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J166" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J166" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="K166" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M166" s="1">
         <v>19</v>
